--- a/OriginTable/GlobalConfig.xlsx
+++ b/OriginTable/GlobalConfig.xlsx
@@ -7,16 +7,14 @@
     <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="GlobalConfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -33,7 +31,22 @@
     <t>Para2</t>
   </si>
   <si>
-    <t>##备注</t>
+    <t>##Notes</t>
+  </si>
+  <si>
+    <t>常量名</t>
+  </si>
+  <si>
+    <t>枚举类型</t>
+  </si>
+  <si>
+    <t>参数1</t>
+  </si>
+  <si>
+    <t>参数2</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
   <si>
     <t>int</t>
@@ -704,7 +717,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -720,20 +733,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1046,86 +1050,86 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16" style="3" customWidth="1"/>
-    <col min="3" max="3" width="5.375" style="3" customWidth="1"/>
-    <col min="4" max="5" width="6.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="47" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="3" customWidth="1"/>
+    <col min="4" max="5" width="6.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="47.25" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="6"/>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>100</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>9</v>
-      </c>
+    <row r="3" s="1" customFormat="1" spans="1:6">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -1136,59 +1140,79 @@
       <c r="E4" s="3">
         <v>100</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>11</v>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>60</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>100</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>15</v>
+        <v>60</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
         <v>4</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>17</v>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1196,38 +1220,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/OriginTable/GlobalConfig.xlsx
+++ b/OriginTable/GlobalConfig.xlsx
@@ -1053,7 +1053,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="5"/>
